--- a/output1.xlsx
+++ b/output1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,114 +441,408 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Math</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Phy</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Che</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Eng</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tamil</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Abi</t>
+          <t>Manu</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>72</v>
+      </c>
+      <c r="E2" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Arun</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>101</v>
+        <v>60</v>
+      </c>
+      <c r="E3" t="n">
+        <v>30</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Coulins</t>
+          <t>Arun</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>303</v>
+        <v>52</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D4" t="n">
-        <v>306</v>
+        <v>60</v>
+      </c>
+      <c r="E4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F4" t="n">
+        <v>52</v>
+      </c>
+      <c r="G4" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dinesh</t>
+          <t>Arun</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D5" t="n">
-        <v>48</v>
+        <v>72</v>
+      </c>
+      <c r="E5" t="n">
+        <v>52</v>
+      </c>
+      <c r="F5" t="n">
+        <v>30</v>
+      </c>
+      <c r="G5" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Elger</t>
+          <t>Arun</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
+        <v>80</v>
+      </c>
+      <c r="E6" t="n">
+        <v>52</v>
+      </c>
+      <c r="F6" t="n">
+        <v>91</v>
+      </c>
+      <c r="G6" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ganesh</t>
+          <t>Arun</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>52</v>
+      </c>
+      <c r="E7" t="n">
+        <v>52</v>
+      </c>
+      <c r="F7" t="n">
+        <v>72</v>
+      </c>
+      <c r="G7" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Arun</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>80</v>
+      </c>
+      <c r="C8" t="n">
+        <v>80</v>
+      </c>
+      <c r="D8" t="n">
+        <v>60</v>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>72</v>
+      </c>
+      <c r="G8" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Arun</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>52</v>
+      </c>
+      <c r="C9" t="n">
+        <v>52</v>
+      </c>
+      <c r="D9" t="n">
+        <v>80</v>
+      </c>
+      <c r="E9" t="n">
+        <v>72</v>
+      </c>
+      <c r="F9" t="n">
+        <v>72</v>
+      </c>
+      <c r="G9" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sanjay</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>72</v>
+      </c>
+      <c r="C10" t="n">
+        <v>72</v>
+      </c>
+      <c r="D10" t="n">
+        <v>52</v>
+      </c>
+      <c r="E10" t="n">
+        <v>72</v>
+      </c>
+      <c r="F10" t="n">
+        <v>60</v>
+      </c>
+      <c r="G10" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sanjay</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>72</v>
+      </c>
+      <c r="C11" t="n">
+        <v>72</v>
+      </c>
+      <c r="D11" t="n">
+        <v>72</v>
+      </c>
+      <c r="E11" t="n">
+        <v>72</v>
+      </c>
+      <c r="F11" t="n">
+        <v>52</v>
+      </c>
+      <c r="G11" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sanjay</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>52</v>
+      </c>
+      <c r="C12" t="n">
+        <v>52</v>
+      </c>
+      <c r="D12" t="n">
+        <v>80</v>
+      </c>
+      <c r="E12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F12" t="n">
+        <v>52</v>
+      </c>
+      <c r="G12" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Arun</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C13" t="n">
+        <v>60</v>
+      </c>
+      <c r="D13" t="n">
+        <v>72</v>
+      </c>
+      <c r="E13" t="n">
+        <v>72</v>
+      </c>
+      <c r="F13" t="n">
+        <v>60</v>
+      </c>
+      <c r="G13" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Manu</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>60</v>
+      </c>
+      <c r="C14" t="n">
+        <v>60</v>
+      </c>
+      <c r="D14" t="n">
+        <v>30</v>
+      </c>
+      <c r="E14" t="n">
+        <v>52</v>
+      </c>
+      <c r="F14" t="n">
+        <v>52</v>
+      </c>
+      <c r="G14" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Arun</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>91</v>
+      </c>
+      <c r="C15" t="n">
+        <v>91</v>
+      </c>
+      <c r="D15" t="n">
+        <v>52</v>
+      </c>
+      <c r="E15" t="n">
+        <v>80</v>
+      </c>
+      <c r="F15" t="n">
+        <v>91</v>
+      </c>
+      <c r="G15" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Manu</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>91</v>
+      </c>
+      <c r="C16" t="n">
+        <v>91</v>
+      </c>
+      <c r="D16" t="n">
+        <v>91</v>
+      </c>
+      <c r="E16" t="n">
+        <v>80</v>
+      </c>
+      <c r="F16" t="n">
+        <v>60</v>
+      </c>
+      <c r="G16" t="n">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
